--- a/project/exampleXL.xlsx
+++ b/project/exampleXL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ompatel/Desktop/fourward/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6116CE4E-7A62-7E44-98D4-561B7BDF7E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AB0832-02D5-954B-AF44-09B7A56C6B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{99EABBEA-7796-5C47-8013-427392CF7BE4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{99EABBEA-7796-5C47-8013-427392CF7BE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>course</t>
   </si>
@@ -81,6 +81,27 @@
   </si>
   <si>
     <t>Discrete Mathematics</t>
+  </si>
+  <si>
+    <t>math 220</t>
+  </si>
+  <si>
+    <t>Linear Algebra</t>
+  </si>
+  <si>
+    <t>engl 202c</t>
+  </si>
+  <si>
+    <t>engl 15</t>
+  </si>
+  <si>
+    <t>Technical Writing</t>
+  </si>
+  <si>
+    <t>Rhetoric and Composition</t>
+  </si>
+  <si>
+    <t>cmpsc 221</t>
   </si>
 </sst>
 </file>
@@ -452,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391E73AB-77E2-084D-9D4C-C3E7CDC41DE6}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -542,6 +563,53 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/project/exampleXL.xlsx
+++ b/project/exampleXL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ompatel/Desktop/fourward/project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nirmalnelson/Desktop/fourward/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AB0832-02D5-954B-AF44-09B7A56C6B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09DC6E2-AFF9-794D-8DBF-3F1F7283E36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{99EABBEA-7796-5C47-8013-427392CF7BE4}"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="34200" windowHeight="21400" xr2:uid="{99EABBEA-7796-5C47-8013-427392CF7BE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>course</t>
   </si>
@@ -68,12 +68,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>Intro to progamming 1</t>
-  </si>
-  <si>
-    <t>Intro to progamming 2</t>
-  </si>
-  <si>
     <t>Calculus 1</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
     <t>math 220</t>
   </si>
   <si>
-    <t>Linear Algebra</t>
-  </si>
-  <si>
     <t>engl 202c</t>
   </si>
   <si>
@@ -102,6 +93,114 @@
   </si>
   <si>
     <t>cmpsc 221</t>
+  </si>
+  <si>
+    <t>Cmpsc 330</t>
+  </si>
+  <si>
+    <t>cmpsc 312</t>
+  </si>
+  <si>
+    <t>cmpsc 430</t>
+  </si>
+  <si>
+    <t>cmpsc 460</t>
+  </si>
+  <si>
+    <t>cmpsc 462</t>
+  </si>
+  <si>
+    <t>cmpsc 463</t>
+  </si>
+  <si>
+    <t>cmpsc 469</t>
+  </si>
+  <si>
+    <t>cmpsc 470</t>
+  </si>
+  <si>
+    <t>cmpsc 472</t>
+  </si>
+  <si>
+    <t>cmpsc 487w</t>
+  </si>
+  <si>
+    <t>cmpsc 488</t>
+  </si>
+  <si>
+    <t>phys 211</t>
+  </si>
+  <si>
+    <t>Introduction to Programming Techniques </t>
+  </si>
+  <si>
+    <t>Intermediate Programming</t>
+  </si>
+  <si>
+    <t>Matrcies</t>
+  </si>
+  <si>
+    <t>math 318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object Oriented Programming </t>
+  </si>
+  <si>
+    <t>Advanced Programming in C++</t>
+  </si>
+  <si>
+    <t>Computer Organization and Architecture</t>
+  </si>
+  <si>
+    <t>Database Design</t>
+  </si>
+  <si>
+    <t>Principls of Programming</t>
+  </si>
+  <si>
+    <t>Data Structures</t>
+  </si>
+  <si>
+    <t>Design and Analysis Algorithms</t>
+  </si>
+  <si>
+    <t>Formal Languages</t>
+  </si>
+  <si>
+    <t>Complier Construction</t>
+  </si>
+  <si>
+    <t>Operating Systems concepts</t>
+  </si>
+  <si>
+    <t>Software Engineering and design</t>
+  </si>
+  <si>
+    <t>Computer Science Project</t>
+  </si>
+  <si>
+    <t>General Physcis</t>
+  </si>
+  <si>
+    <t>Stat</t>
+  </si>
+  <si>
+    <t>cmpsc 312,cmpsc 462,cmpsc 469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">math 141,  cmpsc 132,cmpsc 330, cmpsc 360 </t>
+  </si>
+  <si>
+    <t>math 318, cmpsc 462</t>
+  </si>
+  <si>
+    <t>cmpsc 312, cmpsc 330, cmpsc 462,cmpsc 469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmpsc 312, cmpsc 330, cmpsc 462, cmpsc 469 </t>
+  </si>
+  <si>
+    <t>engl 202c, cmpsc 330</t>
   </si>
 </sst>
 </file>
@@ -473,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391E73AB-77E2-084D-9D4C-C3E7CDC41DE6}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -507,7 +606,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -521,7 +620,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -532,7 +631,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -546,7 +645,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -560,12 +659,12 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -574,40 +673,225 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/project/exampleXL.xlsx
+++ b/project/exampleXL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nirmalnelson/Desktop/fourward/project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ompatel/Desktop/fourward/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09DC6E2-AFF9-794D-8DBF-3F1F7283E36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882D1CF3-F172-924A-8EAC-1745FA97CFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="34200" windowHeight="21400" xr2:uid="{99EABBEA-7796-5C47-8013-427392CF7BE4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{99EABBEA-7796-5C47-8013-427392CF7BE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>cmpsc 221</t>
   </si>
   <si>
-    <t>Cmpsc 330</t>
-  </si>
-  <si>
     <t>cmpsc 312</t>
   </si>
   <si>
@@ -185,22 +182,25 @@
     <t>Stat</t>
   </si>
   <si>
-    <t>cmpsc 312,cmpsc 462,cmpsc 469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">math 141,  cmpsc 132,cmpsc 330, cmpsc 360 </t>
-  </si>
-  <si>
     <t>math 318, cmpsc 462</t>
   </si>
   <si>
-    <t>cmpsc 312, cmpsc 330, cmpsc 462,cmpsc 469</t>
-  </si>
-  <si>
     <t xml:space="preserve">cmpsc 312, cmpsc 330, cmpsc 462, cmpsc 469 </t>
   </si>
   <si>
     <t>engl 202c, cmpsc 330</t>
+  </si>
+  <si>
+    <t>cmpsc 330</t>
+  </si>
+  <si>
+    <t>cmpsc 312, cmpsc 330, cmpsc 462, cmpsc 469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">math 141,  cmpsc 132, cmpsc 330, cmpsc 360 </t>
+  </si>
+  <si>
+    <t>cmpsc 312, cmpsc 462, cmpsc 469</t>
   </si>
 </sst>
 </file>
@@ -575,7 +575,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,7 +606,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -620,7 +620,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -673,7 +673,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -709,12 +709,12 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -723,12 +723,12 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -737,68 +737,68 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -807,12 +807,12 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -821,54 +821,54 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
@@ -877,12 +877,12 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
         <v>5</v>
@@ -891,7 +891,7 @@
         <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/project/exampleXL.xlsx
+++ b/project/exampleXL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ompatel/Desktop/fourward/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882D1CF3-F172-924A-8EAC-1745FA97CFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3A2A57-1DCC-9941-BA9A-1CE9668304AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{99EABBEA-7796-5C47-8013-427392CF7BE4}"/>
   </bookViews>
@@ -575,7 +575,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -708,6 +708,9 @@
       <c r="B10" t="s">
         <v>3</v>
       </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
       <c r="D10" t="s">
         <v>34</v>
       </c>

--- a/project/exampleXL.xlsx
+++ b/project/exampleXL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ompatel/Desktop/fourward/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3A2A57-1DCC-9941-BA9A-1CE9668304AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A18506-F003-DD43-B1A4-46745B0AE28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{99EABBEA-7796-5C47-8013-427392CF7BE4}"/>
   </bookViews>
@@ -572,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391E73AB-77E2-084D-9D4C-C3E7CDC41DE6}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -729,171 +729,171 @@
         <v>35</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
         <v>27</v>
       </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s">
         <v>47</v>
       </c>
     </row>
